--- a/inputs/feature_data.xlsx
+++ b/inputs/feature_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\UofA\tutorials\c_discoverer_data_analysis_tutorial\tutorial_data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\UofA\tutorials\c_discoverer_data_analysis_tutorial\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BE693-273E-415B-B774-B32C44A68870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB166F7A-23BF-4DD7-9AA6-BA53E3C375AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,6 +373,12 @@
     <t>C40 H76 N2 O5</t>
   </si>
   <si>
+    <t>Area: S1.raw (F7)</t>
+  </si>
+  <si>
+    <t>Area: S2.raw (F8)</t>
+  </si>
+  <si>
     <t>Area: S3.raw (F9)</t>
   </si>
   <si>
@@ -581,6 +587,12 @@
   </si>
   <si>
     <t>Area: S72.raw (F78)</t>
+  </si>
+  <si>
+    <t>Gap Status: S1.raw (F7)</t>
+  </si>
+  <si>
+    <t>Gap Status: S2.raw (F8)</t>
   </si>
   <si>
     <t>Gap Status: S3.raw (F9)</t>
@@ -793,6 +805,12 @@
     <t>Gap Status: S72.raw (F78)</t>
   </si>
   <si>
+    <t>Gap Fill Status: S1.raw (F7)</t>
+  </si>
+  <si>
+    <t>Gap Fill Status: S2.raw (F8)</t>
+  </si>
+  <si>
     <t>Gap Fill Status: S3.raw (F9)</t>
   </si>
   <si>
@@ -1001,24 +1019,6 @@
   </si>
   <si>
     <t>Gap Fill Status: S72.raw (F78)</t>
-  </si>
-  <si>
-    <t>Gap Fill Status: S1.raw (F7)</t>
-  </si>
-  <si>
-    <t>Gap Fill Status: S2.raw (F8)</t>
-  </si>
-  <si>
-    <t>Gap Status: S1.raw (F7)</t>
-  </si>
-  <si>
-    <t>Gap Status: S2.raw (F8)</t>
-  </si>
-  <si>
-    <t>Area: S1.raw (F7)</t>
-  </si>
-  <si>
-    <t>Area: S2.raw (F8)</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1400,8 @@
   </sheetPr>
   <dimension ref="A1:HN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="HE1" workbookViewId="0">
+      <selection activeCell="HL1" sqref="HL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,652 +1426,652 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="HM1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:222" x14ac:dyDescent="0.3">
